--- a/Standard_star.xlsx
+++ b/Standard_star.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZY\Documents\github\233boy\Dr.-Yep-2024-summer-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709335E0-FA76-4ED8-84E8-95D1E13E54CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36990D2-7598-4E7E-B481-2DAFE0ED05B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{8D641E2F-6EE9-40B9-87C6-9CFFAED98E0A}"/>
   </bookViews>
@@ -6687,7 +6687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185BE31-99E7-4483-A037-F06057D1514D}">
   <dimension ref="D2:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Standard_star.xlsx
+++ b/Standard_star.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZY\Documents\github\233boy\Dr.-Yep-2024-summer-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36990D2-7598-4E7E-B481-2DAFE0ED05B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4B612-8855-4240-B6D5-B9923C5779C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{8D641E2F-6EE9-40B9-87C6-9CFFAED98E0A}"/>
   </bookViews>
@@ -6687,8 +6687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185BE31-99E7-4483-A037-F06057D1514D}">
   <dimension ref="D2:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
